--- a/outputFiles/匯出報表.xlsx
+++ b/outputFiles/匯出報表.xlsx
@@ -169,9 +169,11 @@
     <font>
       <b/>
       <sz val="8"/>
+      <name val="微軟正黑體"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="微軟正黑體"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,8 +205,12 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +554,8 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -689,7 +696,8 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -794,7 +802,8 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -899,7 +908,8 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
   </cols>
   <sheetData>

--- a/outputFiles/匯出報表.xlsx
+++ b/outputFiles/匯出報表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="課程" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="課程類型" state="visible" r:id="rId5"/>
+    <sheet sheetId="2" name="類型" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="學生" state="visible" r:id="rId6"/>
     <sheet sheetId="4" name="課程學生" state="visible" r:id="rId7"/>
   </sheets>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
   <si>
     <t>Field Name</t>
   </si>
@@ -49,12 +49,15 @@
     <t>課程名稱</t>
   </si>
   <si>
-    <t>COURSE_TYPE_ID</t>
+    <t>COURSE_TYPE</t>
   </si>
   <si>
     <t>關聯到：課程類型</t>
   </si>
   <si>
+    <t>COURSE_TYPE_CODE</t>
+  </si>
+  <si>
     <t>CREATE_TIME</t>
   </si>
   <si>
@@ -64,6 +67,42 @@
     <t>建立時間</t>
   </si>
   <si>
+    <t>Used column</t>
+  </si>
+  <si>
+    <t>Reference column</t>
+  </si>
+  <si>
+    <t>COURSE_TYPE_FK</t>
+  </si>
+  <si>
+    <t>TYPE.TYPE</t>
+  </si>
+  <si>
+    <t>TYPE.TYPE_CODE</t>
+  </si>
+  <si>
+    <t>Table [COURSE]課程</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>類型</t>
+  </si>
+  <si>
+    <t>TYPE_CODE</t>
+  </si>
+  <si>
+    <t>類型代碼</t>
+  </si>
+  <si>
+    <t>TYPE_NAME</t>
+  </si>
+  <si>
+    <t>類型名稱</t>
+  </si>
+  <si>
     <t>Index state</t>
   </si>
   <si>
@@ -73,82 +112,52 @@
     <t>Index expression</t>
   </si>
   <si>
-    <t>COURSE_PK</t>
+    <t>TYPE_PK</t>
   </si>
   <si>
     <t>Primary Constraint</t>
   </si>
   <si>
+    <t>TYPE.TYPE, TYPE.TYPE_CODE</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Table [TYPE]類型</t>
+  </si>
+  <si>
+    <t>STUDENT_ID</t>
+  </si>
+  <si>
+    <t>STUDENT_NAME</t>
+  </si>
+  <si>
+    <t>學生姓名</t>
+  </si>
+  <si>
+    <t>Table [STUDENT]學生</t>
+  </si>
+  <si>
+    <t>COURSE_STUDENT_ID</t>
+  </si>
+  <si>
+    <t>課程ID</t>
+  </si>
+  <si>
+    <t>學生ID</t>
+  </si>
+  <si>
+    <t>COURSE_STUDENT_COURSE_FK</t>
+  </si>
+  <si>
     <t>COURSE.COURSE_ID</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Used column</t>
-  </si>
-  <si>
-    <t>Reference column</t>
-  </si>
-  <si>
-    <t>COURSE_COURSE_TYPE_FK</t>
-  </si>
-  <si>
-    <t>COURSE_TYPE.COURSE_TYPE_ID</t>
-  </si>
-  <si>
-    <t>Table [COURSE]課程</t>
-  </si>
-  <si>
-    <t>COURSE_TYPE_NAME</t>
-  </si>
-  <si>
-    <t>課程類型名稱</t>
-  </si>
-  <si>
-    <t>COURSE_TYPE_PK</t>
-  </si>
-  <si>
-    <t>Table [COURSE_TYPE]課程類型</t>
-  </si>
-  <si>
-    <t>STUDENT_ID</t>
-  </si>
-  <si>
-    <t>STUDENT_NAME</t>
-  </si>
-  <si>
-    <t>學生姓名</t>
-  </si>
-  <si>
-    <t>STUDENT_PK</t>
+    <t>COURSE_STUDENT_STUDENT_FK</t>
   </si>
   <si>
     <t>STUDENT.STUDENT_ID</t>
-  </si>
-  <si>
-    <t>Table [STUDENT]學生</t>
-  </si>
-  <si>
-    <t>COURSE_STUDENT_ID</t>
-  </si>
-  <si>
-    <t>課程ID</t>
-  </si>
-  <si>
-    <t>學生ID</t>
-  </si>
-  <si>
-    <t>COURSE_STUDENT_PK</t>
-  </si>
-  <si>
-    <t>COURSE_STUDENT.COURSE_STUDENT_ID</t>
-  </si>
-  <si>
-    <t>COURSE_STUDENT_COURSE_FK</t>
-  </si>
-  <si>
-    <t>COURSE_STUDENT_STUDENT_FK</t>
   </si>
   <si>
     <t>Table [COURSE_STUDENT]課程學生</t>
@@ -550,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -620,68 +629,65 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -692,7 +698,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -717,7 +723,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -726,12 +732,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -740,54 +746,68 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +818,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -823,7 +843,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -837,7 +857,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -846,54 +866,26 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>37</v>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +896,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D11"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -929,7 +921,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -952,12 +944,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -966,87 +958,59 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/outputFiles/匯出報表.xlsx
+++ b/outputFiles/匯出報表.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="課程" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="類型" state="visible" r:id="rId5"/>
+    <sheet sheetId="2" name="課程類型" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="學生" state="visible" r:id="rId6"/>
     <sheet sheetId="4" name="課程學生" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="測驗" state="visible" r:id="rId8"/>
+    <sheet sheetId="6" name="學生測驗" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="65">
   <si>
     <t>Field Name</t>
   </si>
@@ -49,15 +51,12 @@
     <t>課程名稱</t>
   </si>
   <si>
-    <t>COURSE_TYPE</t>
+    <t>COURSE_TYPE_ID</t>
   </si>
   <si>
     <t>關聯到：課程類型</t>
   </si>
   <si>
-    <t>COURSE_TYPE_CODE</t>
-  </si>
-  <si>
     <t>CREATE_TIME</t>
   </si>
   <si>
@@ -67,64 +66,55 @@
     <t>建立時間</t>
   </si>
   <si>
+    <t>Index state</t>
+  </si>
+  <si>
+    <t>Used columns</t>
+  </si>
+  <si>
+    <t>Index expression</t>
+  </si>
+  <si>
+    <t>COURSE_PK</t>
+  </si>
+  <si>
+    <t>Primary Constraint</t>
+  </si>
+  <si>
+    <t>COURSE.undefined</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Used column</t>
   </si>
   <si>
     <t>Reference column</t>
   </si>
   <si>
-    <t>COURSE_TYPE_FK</t>
-  </si>
-  <si>
-    <t>TYPE.TYPE</t>
-  </si>
-  <si>
-    <t>TYPE.TYPE_CODE</t>
+    <t>COURSE_COURSE_TYPE_FK</t>
+  </si>
+  <si>
+    <t>COURSE_TYPE.COURSE_TYPE_ID</t>
   </si>
   <si>
     <t>Table [COURSE]課程</t>
   </si>
   <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>類型</t>
-  </si>
-  <si>
-    <t>TYPE_CODE</t>
-  </si>
-  <si>
-    <t>類型代碼</t>
-  </si>
-  <si>
-    <t>TYPE_NAME</t>
-  </si>
-  <si>
-    <t>類型名稱</t>
-  </si>
-  <si>
-    <t>Index state</t>
-  </si>
-  <si>
-    <t>Used columns</t>
-  </si>
-  <si>
-    <t>Index expression</t>
-  </si>
-  <si>
-    <t>TYPE_PK</t>
-  </si>
-  <si>
-    <t>Primary Constraint</t>
-  </si>
-  <si>
-    <t>TYPE.TYPE, TYPE.TYPE_CODE</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Table [TYPE]類型</t>
+    <t>COURSE_TYPE_NAME</t>
+  </si>
+  <si>
+    <t>課程類型名稱</t>
+  </si>
+  <si>
+    <t>COURSE_TYPE_PK</t>
+  </si>
+  <si>
+    <t>COURSE_TYPE.undefined</t>
+  </si>
+  <si>
+    <t>Table [COURSE_TYPE]課程類型</t>
   </si>
   <si>
     <t>STUDENT_ID</t>
@@ -136,6 +126,12 @@
     <t>學生姓名</t>
   </si>
   <si>
+    <t>STUDENT_PK</t>
+  </si>
+  <si>
+    <t>STUDENT.undefined</t>
+  </si>
+  <si>
     <t>Table [STUDENT]學生</t>
   </si>
   <si>
@@ -148,6 +144,12 @@
     <t>學生ID</t>
   </si>
   <si>
+    <t>COURSE_STUDENT_PK</t>
+  </si>
+  <si>
+    <t>COURSE_STUDENT.undefined</t>
+  </si>
+  <si>
     <t>COURSE_STUDENT_COURSE_FK</t>
   </si>
   <si>
@@ -161,6 +163,54 @@
   </si>
   <si>
     <t>Table [COURSE_STUDENT]課程學生</t>
+  </si>
+  <si>
+    <t>EXAM_TYPE</t>
+  </si>
+  <si>
+    <t>測驗類型</t>
+  </si>
+  <si>
+    <t>EXAM_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>測驗類型代碼</t>
+  </si>
+  <si>
+    <t>EXAM_PK</t>
+  </si>
+  <si>
+    <t>EXAM.EXAM_TYPE, EXAM.EXAM_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>Table [EXAM]測驗</t>
+  </si>
+  <si>
+    <t>STUDENT_EXAM_ID</t>
+  </si>
+  <si>
+    <t>測驗代碼</t>
+  </si>
+  <si>
+    <t>STUDENT_EXAM_PK</t>
+  </si>
+  <si>
+    <t>STUDENT_EXAM.undefined</t>
+  </si>
+  <si>
+    <t>STUDENT_EXAM_STUDENT_FK</t>
+  </si>
+  <si>
+    <t>STUDENT_EXAM_EXAM_FK</t>
+  </si>
+  <si>
+    <t>EXAM.EXAM_TYPE</t>
+  </si>
+  <si>
+    <t>EXAM.EXAM_TYPE_CODE</t>
+  </si>
+  <si>
+    <t>Table [STUDENT_EXAM]學生測驗</t>
   </si>
 </sst>
 </file>
@@ -559,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -629,65 +679,68 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -698,7 +751,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -723,7 +776,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -732,12 +785,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -746,68 +799,54 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +857,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -843,7 +882,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -857,7 +896,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -866,26 +905,54 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>40</v>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -896,7 +963,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -921,7 +988,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -944,12 +1011,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -958,59 +1025,371 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>48</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/outputFiles/匯出報表.xlsx
+++ b/outputFiles/匯出報表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="62">
   <si>
     <t>Field Name</t>
   </si>
@@ -81,7 +81,7 @@
     <t>Primary Constraint</t>
   </si>
   <si>
-    <t>COURSE.undefined</t>
+    <t>COURSE.COURSE_ID</t>
   </si>
   <si>
     <t/>
@@ -111,9 +111,6 @@
     <t>COURSE_TYPE_PK</t>
   </si>
   <si>
-    <t>COURSE_TYPE.undefined</t>
-  </si>
-  <si>
     <t>Table [COURSE_TYPE]課程類型</t>
   </si>
   <si>
@@ -129,7 +126,7 @@
     <t>STUDENT_PK</t>
   </si>
   <si>
-    <t>STUDENT.undefined</t>
+    <t>STUDENT.STUDENT_ID</t>
   </si>
   <si>
     <t>Table [STUDENT]學生</t>
@@ -147,21 +144,15 @@
     <t>COURSE_STUDENT_PK</t>
   </si>
   <si>
-    <t>COURSE_STUDENT.undefined</t>
+    <t>COURSE_STUDENT.COURSE_STUDENT_ID</t>
   </si>
   <si>
     <t>COURSE_STUDENT_COURSE_FK</t>
   </si>
   <si>
-    <t>COURSE.COURSE_ID</t>
-  </si>
-  <si>
     <t>COURSE_STUDENT_STUDENT_FK</t>
   </si>
   <si>
-    <t>STUDENT.STUDENT_ID</t>
-  </si>
-  <si>
     <t>Table [COURSE_STUDENT]課程學生</t>
   </si>
   <si>
@@ -195,7 +186,7 @@
     <t>STUDENT_EXAM_PK</t>
   </si>
   <si>
-    <t>STUDENT_EXAM.undefined</t>
+    <t>STUDENT_EXAM.STUDENT_EXAM_ID</t>
   </si>
   <si>
     <t>STUDENT_EXAM_STUDENT_FK</t>
@@ -227,11 +218,11 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="12"/>
       <name val="微軟正黑體"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
       <name val="微軟正黑體"/>
     </font>
   </fonts>
@@ -838,7 +829,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -846,7 +837,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -882,7 +873,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -896,7 +887,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -905,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -938,13 +929,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -952,7 +943,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +979,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1011,12 +1002,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1025,7 +1016,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,13 +1049,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -1083,29 +1074,29 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1132,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1150,12 +1141,12 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -1164,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1197,13 +1188,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -1211,7 +1202,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +1238,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -1261,7 +1252,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -1270,12 +1261,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1284,12 +1275,12 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1298,7 +1289,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1331,13 +1322,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>22</v>
@@ -1356,40 +1347,40 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/outputFiles/匯出報表.xlsx
+++ b/outputFiles/匯出報表.xlsx
@@ -218,11 +218,11 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="微軟正黑體"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="微軟正黑體"/>
     </font>
   </fonts>

--- a/outputFiles/匯出報表.xlsx
+++ b/outputFiles/匯出報表.xlsx
@@ -208,7 +208,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -218,11 +218,15 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="微軟正黑體"/>
+      <sz val="12"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="微軟正黑體"/>
     </font>
   </fonts>
@@ -253,12 +257,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -603,10 +610,7 @@
   <dimension ref="A1:D13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -633,7 +637,7 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -647,7 +651,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -661,7 +665,7 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -675,7 +679,7 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -730,7 +734,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -745,10 +749,7 @@
   <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,7 +776,7 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -789,7 +790,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -803,7 +804,7 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -836,7 +837,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -851,10 +852,7 @@
   <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,7 +879,7 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -895,7 +893,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -909,7 +907,7 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -942,7 +940,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -957,10 +955,7 @@
   <dimension ref="A1:D14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -987,7 +982,7 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1001,7 +996,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1015,7 +1010,7 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1029,7 +1024,7 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1095,7 +1090,7 @@
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1110,10 +1105,7 @@
   <dimension ref="A1:D9"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1140,7 +1132,7 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1154,7 +1146,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1168,7 +1160,7 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1201,7 +1193,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1216,10 +1208,7 @@
   <dimension ref="A1:D16"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1246,7 +1235,7 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1260,7 +1249,7 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1274,7 +1263,7 @@
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1288,7 +1277,7 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1302,7 +1291,7 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1379,7 +1368,7 @@
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
     </row>

--- a/outputFiles/匯出報表.xlsx
+++ b/outputFiles/匯出報表.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="課程" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="課程類型" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="學生" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="課程學生" state="visible" r:id="rId7"/>
-    <sheet sheetId="5" name="測驗" state="visible" r:id="rId8"/>
-    <sheet sheetId="6" name="學生測驗" state="visible" r:id="rId9"/>
+    <sheet sheetId="1" name="1.課程" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="2.課程類型" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="3.學生" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="4.課程學生" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="5.測驗" state="visible" r:id="rId8"/>
+    <sheet sheetId="6" name="6.學生測驗" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
